--- a/assets/formats/Suppliers.xlsx
+++ b/assets/formats/Suppliers.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PRTMS_NEW\assets\formats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="130" windowWidth="19100" windowHeight="7290"/>
+    <workbookView xWindow="75" yWindow="135" windowWidth="19095" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Supplier Code</t>
   </si>
@@ -24,23 +29,26 @@
     <t>Supplier Name</t>
   </si>
   <si>
-    <t>IN029235</t>
-  </si>
-  <si>
-    <t>Uttam Galva</t>
-  </si>
-  <si>
-    <t>KR050794</t>
-  </si>
-  <si>
-    <t>Heasung Electronics</t>
+    <t>is_delete</t>
+  </si>
+  <si>
+    <t>GRV J</t>
+  </si>
+  <si>
+    <t>IND001</t>
+  </si>
+  <si>
+    <t>SUP C</t>
+  </si>
+  <si>
+    <t>IND002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +187,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +222,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,41 +398,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -423,24 +450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
